--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="基本設計" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="命名規則" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="機能一覧" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="画面一覧" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="画面仕様書" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="画面遷移図" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="帳票一覧" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ファイル一覧" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="外部インターフェース一覧" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="外部インターフェース仕様書" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="バッチ処理一覧" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="バッチ処理仕様書" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="システムメール一覧" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="システムメール定義書" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="DBテーブル一覧" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="DBテーブル定義書" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="ER図" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="コード一覧" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="アプリケーション仕様" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="UI設計指針" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基本設計" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="命名規則" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="機能一覧" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="画面一覧" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="画面仕様書" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="画面遷移図" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="帳票一覧" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ファイル一覧" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外部インターフェース一覧" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外部インターフェース仕様書" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="バッチ処理一覧" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="バッチ処理仕様書" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="システムメール一覧" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="システムメール定義書" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBテーブル一覧" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBテーブル定義書" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ER図" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="コード一覧" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="アプリケーション仕様" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UI設計指針" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,83 +63,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -440,8 +372,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="60"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -673,7 +605,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -691,10 +623,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="34" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="5"/>
+    <col customWidth="1" max="3" min="3" width="18"/>
+    <col customWidth="1" max="4" min="4" width="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -786,7 +718,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -804,10 +736,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="6"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="4"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -855,7 +787,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -873,10 +805,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="6"/>
+    <col customWidth="1" max="2" min="2" width="5"/>
+    <col customWidth="1" max="3" min="3" width="5"/>
+    <col customWidth="1" max="4" min="4" width="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -919,7 +851,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -937,10 +869,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="11"/>
+    <col customWidth="1" max="3" min="3" width="7"/>
+    <col customWidth="1" max="4" min="4" width="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -983,7 +915,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1001,10 +933,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="4"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1047,7 +979,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1057,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,9 +997,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1095,7 +1027,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ユーザー(主催者/評価者)</t>
+          <t>ユーザー（主催者/評価者）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1117,24 +1049,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>state: draft/published</t>
+          <t>event_fee/drink_fee/entrance_fee 合計制約</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>artists</t>
+          <t>event_timetables</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>出演アーティスト</t>
+          <t>イベント内ステージ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kind: band/dj</t>
+          <t>position・stage_name</t>
         </is>
       </c>
     </row>
@@ -1151,29 +1083,114 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>event_id + artist_id</t>
+          <t>event_timetable_id・changeover</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>artists</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>出演アーティスト</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>kind: band/dj/unit/solo/duo/ensemble/other</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>artist_members</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>アーティスト構成メンバー</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>name/instrument/role/position</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>artist_social_links</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>アーティストSNSリンク</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>label/url/position</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>割引マスタ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kind: percentage/fixed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>event_discounts</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>イベント割引紐付け</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>イベント×割引 多対多</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>evaluation_memos</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>評価メモ</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CSV取り込み</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CSVインポート結果</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1183,7 +1200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,11 +1208,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="2" min="2" width="17"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="23"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1378,7 +1395,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>enum{organizer, reviewer}</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1591,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>entrance_fee</t>
+          <t>event_fee</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1589,7 +1606,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>基本料金</t>
+          <t>0〜50,000</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1618,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>drink_fee</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1616,7 +1633,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>0〜50,000</t>
         </is>
       </c>
     </row>
@@ -1628,29 +1645,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>entrance_fee</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NOT NULL default 0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>説明</t>
+          <t>自動計算（≦100,000）</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>artists</t>
+          <t>events</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>state</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1660,68 +1682,68 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>NOT NULL default 0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>enum{draft,published}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>artists</t>
+          <t>events</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NOT NULL UNIQUE</t>
+          <t>text</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>アーティスト名</t>
+          <t>イベント説明</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>artists</t>
+          <t>event_timetables</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>genre</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ジャンル</t>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PK</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>artists</t>
+          <t>event_timetables</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>event_id</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1731,24 +1753,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NOT NULL default 0</t>
+          <t>FK -&gt; events</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>親イベント</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>artists</t>
+          <t>event_timetables</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>official_link</t>
+          <t>stage_name</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1756,48 +1778,48 @@
           <t>string</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>公式URL</t>
+          <t>ステージ名</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>artists</t>
+          <t>event_timetables</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>published</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NOT NULL default true</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>公開</t>
+          <t>表示名</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>timetable_slots</t>
+          <t>event_timetables</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>position</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1807,7 +1829,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>default 0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>表示順</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1846,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>event_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1829,12 +1856,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FK -&gt; events</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>イベント</t>
+          <t>PK</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1868,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>artist_id</t>
+          <t>event_id</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1856,12 +1878,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FK -&gt; artists</t>
+          <t>FK -&gt; events</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>出演者</t>
+          <t>親イベント</t>
         </is>
       </c>
     </row>
@@ -1873,22 +1895,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>start_time</t>
+          <t>event_timetable_id</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NOT NULL</t>
+          <t>FK -&gt; event_timetables</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>開始</t>
+          <t>ステージ</t>
         </is>
       </c>
     </row>
@@ -1900,22 +1922,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>end_time</t>
+          <t>artist_id</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NOT NULL</t>
+          <t>FK -&gt; artists</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>終了</t>
+          <t>出演者/転換枠</t>
         </is>
       </c>
     </row>
@@ -1927,78 +1949,88 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>stage_name</t>
+          <t>start_time</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ステージ</t>
+          <t>開始時刻</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>evaluation_memos</t>
+          <t>timetable_slots</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>end_time</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>time</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>終了時刻</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>evaluation_memos</t>
+          <t>timetable_slots</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>event_id</t>
+          <t>changeover</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FK -&gt; events</t>
+          <t>default false</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>対象イベント</t>
+          <t>転換枠フラグ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>evaluation_memos</t>
+          <t>timetable_slots</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>stage_name</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2006,53 +2038,43 @@
           <t>string</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>分類</t>
+          <t>表示用ステージ名</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>evaluation_memos</t>
+          <t>timetable_slots</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>position</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>メモ</t>
+          <t>並び順</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>evaluation_memos</t>
+          <t>artists</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>source_row</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2060,41 +2082,796 @@
           <t>integer</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>CSV行番号</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PK</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>artists</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NOT NULL UNIQUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>アーティスト名</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>artists</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>genre</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ジャンル</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>artists</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NOT NULL default 0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>enum{band,dj,unit,solo,duo,ensemble,other}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>artists</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>official_link</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>公式リンク</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>artists</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NOT NULL default true</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>公開状態</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>artist_members</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>artist_members</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>artist_id</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FK -&gt; artists</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>所属アーティスト</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>artist_members</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>メンバー名</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>artist_members</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>担当楽器</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>artist_members</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>役割</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>artist_members</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>default 0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>表示順</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>artist_social_links</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>artist_social_links</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>artist_id</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FK -&gt; artists</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>所属アーティスト</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>artist_social_links</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NOT NULL default ""</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>リンク名</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>artist_social_links</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>http/httpsのみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>artist_social_links</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>position</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>default 0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>表示順</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NOT NULL UNIQUE</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>割引名称</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>percentage/fixed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NOT NULL default 0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>割引値</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NOT NULL default 0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>適用順</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>discounts</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>event_discounts</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>event_discounts</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>event_id</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>FK -&gt; events</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>event_discounts</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>discount_id</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FK -&gt; discounts</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>割引</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>evaluation_memos</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PK</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>evaluation_memos</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>event_id</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FK -&gt; events</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>対象イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>evaluation_memos</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>evaluation_memos</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>メモ</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>evaluation_memos</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>source_row</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>元CSVの行番号</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>evaluation_memos</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>NOT NULL default {}</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>CSV原文</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2112,8 +2889,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="28"/>
+    <col customWidth="1" max="2" min="2" width="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2177,7 +2954,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2195,9 +2972,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" width="8"/>
+    <col customWidth="1" max="2" min="2" width="27"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2422,7 +3199,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2440,8 +3217,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="60"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2553,7 +3330,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2571,9 +3348,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="2" min="2" width="42"/>
+    <col customWidth="1" max="3" min="3" width="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2696,7 +3473,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2714,10 +3491,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="19"/>
+    <col customWidth="1" max="2" min="2" width="17"/>
+    <col customWidth="1" max="3" min="3" width="60"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2780,7 +3557,6 @@
           <t>2px相当のアウトラインと3:1コントラストでフォーカスリングを表示。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2798,7 +3574,6 @@
           <t>ネイティブ要素優先。カスタムUIはWAI-ARIAパターン遵守。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2816,7 +3591,6 @@
           <t>状態の可視化、ユーザー制御、エラー予防等10原則に準拠。</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2834,7 +3608,6 @@
           <t>どこで何が問題か、修正方法を併記。色以外の手段(アイコン/テキスト)で通知。</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2852,7 +3625,6 @@
           <t>リアルタイム検証は閾値/blur時に限定し過剰通知を避ける。</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2870,7 +3642,6 @@
           <t>sm/md/lg/xlで余白・文字サイズを調整。aspect-*やobject-coverで視覚破綻防止。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2888,7 +3659,6 @@
           <t>LCP/INP/CLSを監視し、レイアウトシフト抑制・font-display:swap・lazy loadingを適用。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2906,7 +3676,6 @@
           <t>prefers-reduced-motionに対応し、激しいアニメーションは避ける。</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2924,7 +3693,6 @@
           <t>論理プロパティと:dir(rtl)を活用し、必要に応じてbdiを利用。</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2942,7 +3710,6 @@
           <t>class or media方式を決定し、Tailwindのdark:バリアントでトークン管理。</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2960,7 +3727,6 @@
           <t>Typography, forms, aspect-ratio等を検討。Headwind等でクラス整列。</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2978,7 +3744,6 @@
           <t>本番はCLI/Viteでビルド。Play CDNは試用のみ。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2996,7 +3761,6 @@
           <t>ラベルは簡潔に。エラー文はラベル名と修正方法を含む。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3014,7 +3778,6 @@
           <t>Button/Form/Modal/Accordion/Tabs/Combobox等でARIAとキーボード操作を保証。</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3032,7 +3795,6 @@
           <t>ビュー内文言はi18nに集約し設計書で一覧管理。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3050,10 +3812,9 @@
           <t>Figma→UI仕様→i18n抽出→Tailwind実装→a11y検証→Lighthouse測定→文言更新。</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3063,7 +3824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3071,10 +3832,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="8"/>
+    <col customWidth="1" max="2" min="2" width="11"/>
+    <col customWidth="1" max="3" min="3" width="19"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3205,7 +3966,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3469,7 +4230,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3491,7 +4252,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3513,7 +4274,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3535,7 +4296,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3557,7 +4318,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3579,7 +4340,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>一部実装</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3601,7 +4362,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3623,7 +4384,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3645,7 +4406,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3667,7 +4428,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3689,7 +4450,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
         </is>
       </c>
     </row>
@@ -3711,12 +4472,122 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>設計中</t>
+          <t>実装済</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FR-30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ステージ管理</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>複数ステージ（イベントタイムテーブル）を追加・削除して枠を整理</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>実装済</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FR-31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>割引マスタ</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>割引名称/種別/値/優先順のCRUD</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>実装済</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FR-32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>イベント割引適用</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>イベント詳細で割引を複数選択し料金へ反映</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>実装済</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FR-33</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SNSリンク管理</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>アーティストSNSリンクの複数登録・並び替え</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>実装済</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FR-34</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>メンバー管理</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>バンド/ユニットのメンバー情報登録・表示</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>実装済</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3726,7 +4597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3734,11 +4605,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="11"/>
+    <col customWidth="1" max="3" min="3" width="40"/>
+    <col customWidth="1" max="4" min="4" width="8"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3818,7 +4689,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>料金内訳表示予定</t>
+          <t>料金内訳・割引適用結果・ステージ別タイムテーブル表示</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4895,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ボードUIで一括編集/ドラッグ&amp;ドロップ/テンプレート</t>
+          <t>複数ステージ対応ドラッグ&amp;ドロップ/テンプレート配分/転換枠追加</t>
         </is>
       </c>
     </row>
@@ -4082,8 +4953,89 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SCR-013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>割引一覧</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>/discounts</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>主催者</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>割引マスタの一覧・並び替え</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SCR-014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>割引登録</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>/discounts/new</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>主催者</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>名称/種別/値/優先度を入力</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SCR-015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>割引編集</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>/discounts/:id/edit</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>主催者</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>割引情報の更新・削除</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4093,7 +5045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4101,10 +5053,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="11"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4323,7 +5275,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30/60分</t>
+          <t>任意分数（5分刻み）のテンプレートと開始/終了時刻から均等配分</t>
         </is>
       </c>
     </row>
@@ -4503,8 +5455,74 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SCR-002</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>割引適用カード</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>リスト</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>チェックボックスで割引を複数選択し料金を再計算表示</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SCR-013</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>割引テーブル</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>一覧</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>名称/種別/値/優先度/操作列</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SCR-014</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>割引フォーム</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>フォーム</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>名称・種別(割合/固定)・値・説明・優先度を入力</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4522,10 +5540,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4729,7 +5747,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4747,9 +5765,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="4" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" width="6"/>
+    <col customWidth="1" max="2" min="2" width="4"/>
+    <col customWidth="1" max="3" min="3" width="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4787,7 +5805,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4805,9 +5823,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="48" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" width="8"/>
+    <col customWidth="1" max="2" min="2" width="48"/>
+    <col customWidth="1" max="3" min="3" width="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5032,7 +6050,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5050,10 +6068,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="12"/>
+    <col customWidth="1" max="2" min="2" width="11"/>
+    <col customWidth="1" max="3" min="3" width="5"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5101,6 +6119,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基本設計" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="命名規則" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="機能一覧" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="画面一覧" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="画面仕様書" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="画面遷移図" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="帳票一覧" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ファイル一覧" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外部インターフェース一覧" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="外部インターフェース仕様書" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="バッチ処理一覧" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="バッチ処理仕様書" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="システムメール一覧" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="システムメール定義書" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBテーブル一覧" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBテーブル定義書" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ER図" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="コード一覧" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="アプリケーション仕様" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UI設計指針" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="基本設計" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="命名規則" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="機能一覧" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="画面一覧" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="画面仕様書" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="画面遷移図" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="帳票一覧" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ファイル一覧" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="外部インターフェース一覧" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="外部インターフェース仕様書" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="バッチ処理一覧" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="バッチ処理仕様書" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="システムメール一覧" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="システムメール定義書" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="DBテーブル一覧" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="DBテーブル定義書" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="ER図" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="コード一覧" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="アプリケーション仕様" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="UI設計指針" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,15 +63,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -372,8 +440,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10"/>
-    <col customWidth="1" max="2" min="2" width="60"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -408,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FR-01〜FR-27。既存機能(ログイン/イベント/アーティスト/評価メモ)＋追加要件(料金内訳、ヘッダー切替、タイムテーブル強化)。</t>
+          <t>FR-01〜FR-37。ログイン/イベント/アーティスト/割引に加え、CSS Gridタイムチャート・アーティストモーダル・備考展開など最新UIを反映。</t>
         </is>
       </c>
     </row>
@@ -432,7 +500,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tailwind CSS + 認知心理学ベースのUIガイドに従い、共通ヘッダー/フッター、フォーム、テンプレートUIを整備。</t>
+          <t>Tailwind CSS + Grid設計。タイムテーブルはGoogleカレンダー風のタイムチャート、モーダル/備考展開/アクセシビリティ対応を含む。</t>
         </is>
       </c>
     </row>
@@ -605,7 +673,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -623,10 +691,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12"/>
-    <col customWidth="1" max="2" min="2" width="5"/>
-    <col customWidth="1" max="3" min="3" width="18"/>
-    <col customWidth="1" max="4" min="4" width="34"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -718,7 +786,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -736,10 +804,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="4"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="4" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -787,7 +855,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -805,10 +873,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6"/>
-    <col customWidth="1" max="2" min="2" width="5"/>
-    <col customWidth="1" max="3" min="3" width="5"/>
-    <col customWidth="1" max="4" min="4" width="4"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="4" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -851,7 +919,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -869,10 +937,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7"/>
-    <col customWidth="1" max="2" min="2" width="11"/>
-    <col customWidth="1" max="3" min="3" width="7"/>
-    <col customWidth="1" max="4" min="4" width="4"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="4" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -915,7 +983,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -933,10 +1001,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7"/>
-    <col customWidth="1" max="2" min="2" width="4"/>
-    <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="4" min="4" width="4"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="4" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="4" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -979,7 +1047,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -997,9 +1065,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="18"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="24"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1083,7 +1151,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>event_timetable_id・changeover</t>
+          <t>event_timetable_id・slot_kind(performance/changeover/other)・note(最大1,000字)</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1258,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1200,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,11 +1276,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="18"/>
-    <col customWidth="1" max="2" min="2" width="17"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="23"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2870,8 +2938,62 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>timetable_slots</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>slot_kind</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NOT NULL default "performance"</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>performance/changeover/other。changeover切替で背景色・入力UIを制御</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>timetable_slots</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NOT NULL default ""</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>備考 0〜1,000字。表示時は要約+詳細展開</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2889,8 +3011,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="28"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2954,7 +3076,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2972,9 +3094,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="27"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3199,7 +3321,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3217,8 +3339,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="60"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3330,7 +3452,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3348,9 +3470,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10"/>
-    <col customWidth="1" max="2" min="2" width="42"/>
-    <col customWidth="1" max="3" min="3" width="18"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3473,7 +3595,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3491,10 +3613,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="19"/>
-    <col customWidth="1" max="2" min="2" width="17"/>
-    <col customWidth="1" max="3" min="3" width="60"/>
-    <col customWidth="1" max="4" min="4" width="10"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3814,7 +3936,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3824,7 +3946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3832,10 +3954,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="11"/>
-    <col customWidth="1" max="3" min="3" width="19"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4586,8 +4708,74 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FR-35</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>タイムチャート表示</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CSS Grid+5分刻みのチャートで枠の重なりを解消し、ステージ単位で描画</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>実装済</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FR-36</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>アーティストモーダル</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>クリックでプロフィール/SNS/メンバー/編集導線をモーダル表示</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>実装済</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FR-37</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>備考展開表示</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>枠の備考を要約カード+詳細表示で閲覧できる</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>実装済</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4605,11 +4793,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="11"/>
-    <col customWidth="1" max="3" min="3" width="40"/>
-    <col customWidth="1" max="4" min="4" width="8"/>
-    <col customWidth="1" max="5" min="5" width="10"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5035,7 +5223,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5045,7 +5233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5053,10 +5241,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9"/>
-    <col customWidth="1" max="2" min="2" width="11"/>
-    <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="4" min="4" width="17"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5160,12 +5348,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>リスト</t>
+          <t>タイムチャート</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>枠一覧</t>
+          <t>CSS Grid(5分刻み)で時間軸と枠を同期。Interval Partitioningで重なり解消し、ステージ単位で表示。</t>
         </is>
       </c>
     </row>
@@ -5521,8 +5709,74 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SCR-002</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>アーティストモーダル</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>モーダル</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>リンク押下で詳細表示。role="dialog"/ESC/×/外側クリックで閉じ、編集ボタンで /artists/:id/edit へ遷移。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SCR-002</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>備考カード</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>アクセサリ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>各枠の備考を要約表示し、「詳細を表示」で展開。クリック時はモーダル/アコーディオンで全文を表示。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SCR-002</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>時間ラベル</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ガイド</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>左軸はminmax(2.5rem,4rem)で可変。5分刻みのラベルを1時間ごとに描画し、枠の開始/終了位置と同期。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5540,10 +5794,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5747,7 +6001,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5765,9 +6019,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6"/>
-    <col customWidth="1" max="2" min="2" width="4"/>
-    <col customWidth="1" max="3" min="3" width="6"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="4" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5805,7 +6059,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5823,9 +6077,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="48"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6050,7 +6304,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6068,10 +6322,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="12"/>
-    <col customWidth="1" max="2" min="2" width="11"/>
-    <col customWidth="1" max="3" min="3" width="5"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6119,6 +6373,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>